--- a/medicine/Psychotrope/Café_de_la_Paix_(Paris)/Café_de_la_Paix_(Paris).xlsx
+++ b/medicine/Psychotrope/Café_de_la_Paix_(Paris)/Café_de_la_Paix_(Paris).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_de_la_Paix_(Paris)</t>
+          <t>Café_de_la_Paix_(Paris)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le café de la Paix est un célèbre café et restaurant parisien dans le quartier de la Chaussée-d'Antin du 9e arrondissement. Proche de l'opéra Garnier, il est situé à l’angle de la place de l'Opéra (adresse au no 5) et du boulevard des Capucines (adresse au no 12).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_de_la_Paix_(Paris)</t>
+          <t>Café_de_la_Paix_(Paris)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le café de la Paix a ouvert ses portes en 1862. Il était alors le café restaurant du Grand Hôtel de la Paix. En 1896, y sont organisées des projections cinématographiques.
 Le 1er septembre 1897, la concession du café est cédée à Arthur Millon, qui prendra ensuite le contrôle de son bailleur avant d'être à l'origine d'un des plus grands groupes d'hôtellerie parisiens. À sa mort en 1913, il lègue son empire à son fils André puis à la suite des querelles sur la succession de ce dernier, le groupe est revendu en 1972.
-La salle du café de la Paix avec son décor, ainsi que plusieurs éléments de l'hôtel qui l'abrite, ont été inscrits aux monuments historiques par un arrêté du 22 août 1975[1].
+La salle du café de la Paix avec son décor, ainsi que plusieurs éléments de l'hôtel qui l'abrite, ont été inscrits aux monuments historiques par un arrêté du 22 août 1975.
 En 2002, le café de la Paix est rénové.
 			Logotype de l'établissement.
 </t>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_de_la_Paix_(Paris)</t>
+          <t>Café_de_la_Paix_(Paris)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Description architecturale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est construit dans le plus pur style Napoléon III, au rez-de-chaussée d'un luxueux immeuble haussmannien, qui abrite aujourd'hui l'InterContinental Paris Le Grand (ancien hôtel de la Paix, puis Grand Hôtel).
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_de_la_Paix_(Paris)</t>
+          <t>Café_de_la_Paix_(Paris)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Clients célèbres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi ses habitués célèbres il y eut à la fin du XIXe siècle Tchaïkovski, Massenet, Zola ou encore Maupassant.
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_de_la_Paix_(Paris)</t>
+          <t>Café_de_la_Paix_(Paris)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>Représentations culturelles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On aperçoit le café de la Paix dans le dessin animé Les Aristochats[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On aperçoit le café de la Paix dans le dessin animé Les Aristochats.
 </t>
         </is>
       </c>
